--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umass-my.sharepoint.com/personal/chaitrag_umass_edu/Documents/Documents/GITHUB/PATH4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitra Gopalappa\OneDrive - University of Massachusetts\Documents\GITHUB\PATH4-public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -803,7 +803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M1307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55218,6 +55218,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Math_Settings xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Invited_Teachers xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <FolderType xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Owner xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <NotebookType xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Teachers xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <AppVersion xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <CultureName xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Distribution_Groups xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <LMS_Mappings xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Invited_Students xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <Templates xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <TeamsChannelId xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B6FF9E6F04FA94786505791FC4963AA" ma:contentTypeVersion="36" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53bb48b10f0a12cd566c2dd6d2a5ca14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xmlns:ns4="53de4f5b-c397-475b-88a9-3eb33bca2aca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e050eb72d35858fd0f5ed482a99d6b3" ns3:_="" ns4:_="">
     <xsd:import namespace="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d"/>
@@ -55646,68 +55707,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A134B0B7-59FF-45B0-A96B-F490D3E3E38C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="53de4f5b-c397-475b-88a9-3eb33bca2aca"/>
+    <ds:schemaRef ds:uri="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Math_Settings xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Invited_Teachers xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <FolderType xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Owner xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <NotebookType xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Teachers xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <AppVersion xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <CultureName xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Distribution_Groups xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <LMS_Mappings xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Invited_Students xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <Templates xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <TeamsChannelId xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2916CF61-402E-4BE4-ADDD-7757FCBBCF28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498DA2FC-8F10-4149-B52A-05C51721D226}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55724,29 +55749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2916CF61-402E-4BE4-ADDD-7757FCBBCF28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A134B0B7-59FF-45B0-A96B-F490D3E3E38C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="53de4f5b-c397-475b-88a9-3eb33bca2aca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7537" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7576" uniqueCount="44">
   <si>
     <t>Parameter</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>dummy for 2008 and 2009 to keep same scale for all subgraphs</t>
   </si>
 </sst>
 </file>
@@ -824,10 +827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M1307"/>
+  <dimension ref="B1:M1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A1281" workbookViewId="0">
+      <selection activeCell="E1248" sqref="E1248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,9 +947,13 @@
       <c r="G5" s="3">
         <v>2008</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
@@ -965,7 +972,9 @@
       <c r="G6" s="3">
         <v>2009</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1210,9 +1219,13 @@
       <c r="G16" s="3">
         <v>2008</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
@@ -1231,7 +1244,9 @@
       <c r="G17" s="3">
         <v>2009</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1476,9 +1491,13 @@
       <c r="G27" s="3">
         <v>2008</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
@@ -1497,7 +1516,9 @@
       <c r="G28" s="3">
         <v>2009</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1700,9 +1721,13 @@
       <c r="G36" s="3">
         <v>2006</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="12">
+        <v>0</v>
+      </c>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
@@ -1721,7 +1746,9 @@
       <c r="G37" s="3">
         <v>2007</v>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -2023,9 +2050,13 @@
       <c r="G49" s="3">
         <v>2006</v>
       </c>
-      <c r="H49" s="12"/>
+      <c r="H49" s="12">
+        <v>0</v>
+      </c>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
@@ -2044,7 +2075,9 @@
       <c r="G50" s="3">
         <v>2007</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="12">
+        <v>1</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -2346,9 +2379,13 @@
       <c r="G62" s="3">
         <v>2006</v>
       </c>
-      <c r="H62" s="12"/>
+      <c r="H62" s="12">
+        <v>0</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
@@ -2367,7 +2404,9 @@
       <c r="G63" s="3">
         <v>2007</v>
       </c>
-      <c r="H63" s="12"/>
+      <c r="H63" s="12">
+        <v>1</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -2711,9 +2750,13 @@
       <c r="G77" s="3">
         <v>2008</v>
       </c>
-      <c r="H77" s="12"/>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
@@ -2732,7 +2775,9 @@
       <c r="G78" s="3">
         <v>2009</v>
       </c>
-      <c r="H78" s="12"/>
+      <c r="H78" s="12">
+        <v>1</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -2977,9 +3022,13 @@
       <c r="G88" s="3">
         <v>2008</v>
       </c>
-      <c r="H88" s="12"/>
+      <c r="H88" s="12">
+        <v>0</v>
+      </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
@@ -2998,7 +3047,9 @@
       <c r="G89" s="3">
         <v>2009</v>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="12">
+        <v>1</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -3243,9 +3294,13 @@
       <c r="G99" s="3">
         <v>2008</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12">
+        <v>0</v>
+      </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
     </row>
@@ -3264,7 +3319,9 @@
       <c r="G100" s="3">
         <v>2009</v>
       </c>
-      <c r="H100" s="12"/>
+      <c r="H100" s="12">
+        <v>1</v>
+      </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
@@ -3467,9 +3524,13 @@
       <c r="G108" s="3">
         <v>2006</v>
       </c>
-      <c r="H108" s="12"/>
+      <c r="H108" s="12">
+        <v>0</v>
+      </c>
       <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="J108" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
     </row>
@@ -3488,7 +3549,9 @@
       <c r="G109" s="3">
         <v>2007</v>
       </c>
-      <c r="H109" s="12"/>
+      <c r="H109" s="12">
+        <v>1</v>
+      </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
@@ -3743,9 +3806,13 @@
       <c r="G119" s="3">
         <v>2006</v>
       </c>
-      <c r="H119" s="12"/>
+      <c r="H119" s="12">
+        <v>0</v>
+      </c>
       <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="J119" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
     </row>
@@ -3764,7 +3831,9 @@
       <c r="G120" s="3">
         <v>2007</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="12">
+        <v>1</v>
+      </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -4019,9 +4088,13 @@
       <c r="G130" s="3">
         <v>2006</v>
       </c>
-      <c r="H130" s="12"/>
+      <c r="H130" s="12">
+        <v>0</v>
+      </c>
       <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="J130" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
     </row>
@@ -4040,7 +4113,9 @@
       <c r="G131" s="3">
         <v>2007</v>
       </c>
-      <c r="H131" s="12"/>
+      <c r="H131" s="12">
+        <v>1</v>
+      </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -8247,9 +8322,13 @@
       <c r="G319" s="3">
         <v>2008</v>
       </c>
-      <c r="H319" s="12"/>
+      <c r="H319" s="12">
+        <v>0</v>
+      </c>
       <c r="I319" s="3"/>
-      <c r="J319" s="3"/>
+      <c r="J319" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
     </row>
@@ -8268,7 +8347,9 @@
       <c r="G320" s="3">
         <v>2009</v>
       </c>
-      <c r="H320" s="12"/>
+      <c r="H320" s="12">
+        <v>1</v>
+      </c>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
@@ -8513,9 +8594,13 @@
       <c r="G330" s="3">
         <v>2008</v>
       </c>
-      <c r="H330" s="12"/>
+      <c r="H330" s="12">
+        <v>0</v>
+      </c>
       <c r="I330" s="3"/>
-      <c r="J330" s="3"/>
+      <c r="J330" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
     </row>
@@ -8534,7 +8619,9 @@
       <c r="G331" s="3">
         <v>2009</v>
       </c>
-      <c r="H331" s="12"/>
+      <c r="H331" s="12">
+        <v>1</v>
+      </c>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
@@ -8779,9 +8866,13 @@
       <c r="G341" s="3">
         <v>2008</v>
       </c>
-      <c r="H341" s="12"/>
+      <c r="H341" s="12">
+        <v>0</v>
+      </c>
       <c r="I341" s="3"/>
-      <c r="J341" s="3"/>
+      <c r="J341" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
     </row>
@@ -8800,7 +8891,9 @@
       <c r="G342" s="3">
         <v>2009</v>
       </c>
-      <c r="H342" s="12"/>
+      <c r="H342" s="12">
+        <v>1</v>
+      </c>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
@@ -9045,9 +9138,13 @@
       <c r="G352" s="3">
         <v>2008</v>
       </c>
-      <c r="H352" s="12"/>
+      <c r="H352" s="12">
+        <v>0</v>
+      </c>
       <c r="I352" s="3"/>
-      <c r="J352" s="3"/>
+      <c r="J352" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
     </row>
@@ -9066,7 +9163,9 @@
       <c r="G353" s="3">
         <v>2009</v>
       </c>
-      <c r="H353" s="12"/>
+      <c r="H353" s="12">
+        <v>1</v>
+      </c>
       <c r="I353" s="3"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
@@ -9311,9 +9410,13 @@
       <c r="G363" s="3">
         <v>2008</v>
       </c>
-      <c r="H363" s="12"/>
+      <c r="H363" s="12">
+        <v>0</v>
+      </c>
       <c r="I363" s="3"/>
-      <c r="J363" s="3"/>
+      <c r="J363" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
     </row>
@@ -9332,7 +9435,9 @@
       <c r="G364" s="3">
         <v>2009</v>
       </c>
-      <c r="H364" s="12"/>
+      <c r="H364" s="12">
+        <v>1</v>
+      </c>
       <c r="I364" s="3"/>
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
@@ -9535,9 +9640,13 @@
       <c r="G372" s="3">
         <v>2006</v>
       </c>
-      <c r="H372" s="12"/>
+      <c r="H372" s="12">
+        <v>0</v>
+      </c>
       <c r="I372" s="3"/>
-      <c r="J372" s="3"/>
+      <c r="J372" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
     </row>
@@ -9556,7 +9665,9 @@
       <c r="G373" s="3">
         <v>2007</v>
       </c>
-      <c r="H373" s="12"/>
+      <c r="H373" s="12">
+        <v>1</v>
+      </c>
       <c r="I373" s="3"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
@@ -9837,9 +9948,13 @@
       <c r="G384" s="3">
         <v>2006</v>
       </c>
-      <c r="H384" s="12"/>
+      <c r="H384" s="12">
+        <v>0</v>
+      </c>
       <c r="I384" s="3"/>
-      <c r="J384" s="3"/>
+      <c r="J384" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
     </row>
@@ -9858,7 +9973,9 @@
       <c r="G385" s="3">
         <v>2007</v>
       </c>
-      <c r="H385" s="12"/>
+      <c r="H385" s="12">
+        <v>1</v>
+      </c>
       <c r="I385" s="3"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
@@ -10139,9 +10256,13 @@
       <c r="G396" s="3">
         <v>2006</v>
       </c>
-      <c r="H396" s="12"/>
+      <c r="H396" s="12">
+        <v>0</v>
+      </c>
       <c r="I396" s="3"/>
-      <c r="J396" s="3"/>
+      <c r="J396" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
     </row>
@@ -10160,7 +10281,9 @@
       <c r="G397" s="3">
         <v>2007</v>
       </c>
-      <c r="H397" s="12"/>
+      <c r="H397" s="12">
+        <v>1</v>
+      </c>
       <c r="I397" s="3"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
@@ -10441,9 +10564,13 @@
       <c r="G408" s="3">
         <v>2006</v>
       </c>
-      <c r="H408" s="12"/>
+      <c r="H408" s="12">
+        <v>0</v>
+      </c>
       <c r="I408" s="3"/>
-      <c r="J408" s="3"/>
+      <c r="J408" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
     </row>
@@ -10462,7 +10589,9 @@
       <c r="G409" s="3">
         <v>2007</v>
       </c>
-      <c r="H409" s="12"/>
+      <c r="H409" s="12">
+        <v>1</v>
+      </c>
       <c r="I409" s="3"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
@@ -10743,9 +10872,13 @@
       <c r="G420" s="3">
         <v>2006</v>
       </c>
-      <c r="H420" s="12"/>
+      <c r="H420" s="12">
+        <v>0</v>
+      </c>
       <c r="I420" s="3"/>
-      <c r="J420" s="3"/>
+      <c r="J420" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
     </row>
@@ -10764,7 +10897,9 @@
       <c r="G421" s="3">
         <v>2007</v>
       </c>
-      <c r="H421" s="12"/>
+      <c r="H421" s="12">
+        <v>1</v>
+      </c>
       <c r="I421" s="3"/>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
@@ -11045,9 +11180,13 @@
       <c r="G432" s="3">
         <v>2006</v>
       </c>
-      <c r="H432" s="12"/>
+      <c r="H432" s="12">
+        <v>0</v>
+      </c>
       <c r="I432" s="3"/>
-      <c r="J432" s="3"/>
+      <c r="J432" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
     </row>
@@ -11066,7 +11205,9 @@
       <c r="G433" s="3">
         <v>2007</v>
       </c>
-      <c r="H433" s="12"/>
+      <c r="H433" s="12">
+        <v>1</v>
+      </c>
       <c r="I433" s="3"/>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
@@ -11347,9 +11488,13 @@
       <c r="G444" s="3">
         <v>2006</v>
       </c>
-      <c r="H444" s="12"/>
+      <c r="H444" s="12">
+        <v>0</v>
+      </c>
       <c r="I444" s="3"/>
-      <c r="J444" s="3"/>
+      <c r="J444" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
     </row>
@@ -11368,7 +11513,9 @@
       <c r="G445" s="3">
         <v>2007</v>
       </c>
-      <c r="H445" s="12"/>
+      <c r="H445" s="12">
+        <v>1</v>
+      </c>
       <c r="I445" s="3"/>
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
@@ -11649,9 +11796,13 @@
       <c r="G456" s="3">
         <v>2006</v>
       </c>
-      <c r="H456" s="12"/>
+      <c r="H456" s="12">
+        <v>0</v>
+      </c>
       <c r="I456" s="3"/>
-      <c r="J456" s="3"/>
+      <c r="J456" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
     </row>
@@ -11670,7 +11821,9 @@
       <c r="G457" s="3">
         <v>2007</v>
       </c>
-      <c r="H457" s="12"/>
+      <c r="H457" s="12">
+        <v>1</v>
+      </c>
       <c r="I457" s="3"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
@@ -11951,9 +12104,13 @@
       <c r="G468" s="3">
         <v>2006</v>
       </c>
-      <c r="H468" s="12"/>
+      <c r="H468" s="12">
+        <v>0</v>
+      </c>
       <c r="I468" s="3"/>
-      <c r="J468" s="3"/>
+      <c r="J468" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
     </row>
@@ -11972,7 +12129,9 @@
       <c r="G469" s="3">
         <v>2007</v>
       </c>
-      <c r="H469" s="12"/>
+      <c r="H469" s="12">
+        <v>1</v>
+      </c>
       <c r="I469" s="3"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
@@ -12253,9 +12412,13 @@
       <c r="G480" s="3">
         <v>2006</v>
       </c>
-      <c r="H480" s="12"/>
+      <c r="H480" s="12">
+        <v>0</v>
+      </c>
       <c r="I480" s="3"/>
-      <c r="J480" s="3"/>
+      <c r="J480" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
@@ -12274,7 +12437,9 @@
       <c r="G481" s="3">
         <v>2007</v>
       </c>
-      <c r="H481" s="12"/>
+      <c r="H481" s="12">
+        <v>1</v>
+      </c>
       <c r="I481" s="3"/>
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
@@ -12555,9 +12720,13 @@
       <c r="G492" s="3">
         <v>2006</v>
       </c>
-      <c r="H492" s="12"/>
+      <c r="H492" s="12">
+        <v>0</v>
+      </c>
       <c r="I492" s="3"/>
-      <c r="J492" s="3"/>
+      <c r="J492" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
@@ -12576,7 +12745,9 @@
       <c r="G493" s="3">
         <v>2007</v>
       </c>
-      <c r="H493" s="12"/>
+      <c r="H493" s="12">
+        <v>1</v>
+      </c>
       <c r="I493" s="3"/>
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
@@ -12857,9 +13028,13 @@
       <c r="G504" s="3">
         <v>2006</v>
       </c>
-      <c r="H504" s="12"/>
+      <c r="H504" s="12">
+        <v>0</v>
+      </c>
       <c r="I504" s="3"/>
-      <c r="J504" s="3"/>
+      <c r="J504" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
@@ -12878,7 +13053,9 @@
       <c r="G505" s="3">
         <v>2007</v>
       </c>
-      <c r="H505" s="12"/>
+      <c r="H505" s="12">
+        <v>1</v>
+      </c>
       <c r="I505" s="3"/>
       <c r="J505" s="3"/>
       <c r="K505" s="3"/>
@@ -13159,9 +13336,13 @@
       <c r="G516" s="3">
         <v>2006</v>
       </c>
-      <c r="H516" s="12"/>
+      <c r="H516" s="12">
+        <v>0</v>
+      </c>
       <c r="I516" s="3"/>
-      <c r="J516" s="3"/>
+      <c r="J516" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
@@ -13180,7 +13361,9 @@
       <c r="G517" s="3">
         <v>2007</v>
       </c>
-      <c r="H517" s="12"/>
+      <c r="H517" s="12">
+        <v>1</v>
+      </c>
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517" s="3"/>
@@ -13461,9 +13644,13 @@
       <c r="G528" s="3">
         <v>2006</v>
       </c>
-      <c r="H528" s="12"/>
+      <c r="H528" s="12">
+        <v>0</v>
+      </c>
       <c r="I528" s="3"/>
-      <c r="J528" s="3"/>
+      <c r="J528" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K528" s="3"/>
       <c r="L528" s="3"/>
     </row>
@@ -13482,7 +13669,9 @@
       <c r="G529" s="3">
         <v>2007</v>
       </c>
-      <c r="H529" s="12"/>
+      <c r="H529" s="12">
+        <v>1</v>
+      </c>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
       <c r="K529" s="3"/>
@@ -13763,9 +13952,13 @@
       <c r="G540" s="3">
         <v>2006</v>
       </c>
-      <c r="H540" s="12"/>
+      <c r="H540" s="12">
+        <v>0</v>
+      </c>
       <c r="I540" s="3"/>
-      <c r="J540" s="3"/>
+      <c r="J540" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K540" s="3"/>
       <c r="L540" s="3"/>
     </row>
@@ -13784,7 +13977,9 @@
       <c r="G541" s="3">
         <v>2007</v>
       </c>
-      <c r="H541" s="12"/>
+      <c r="H541" s="12">
+        <v>1</v>
+      </c>
       <c r="I541" s="3"/>
       <c r="J541" s="3"/>
       <c r="K541" s="3"/>
@@ -24978,9 +25173,13 @@
       <c r="G1010" s="3">
         <v>2009</v>
       </c>
-      <c r="H1010" s="12"/>
+      <c r="H1010" s="12">
+        <v>0</v>
+      </c>
       <c r="I1010" s="3"/>
-      <c r="J1010" s="3"/>
+      <c r="J1010" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1010" s="3"/>
       <c r="L1010" s="3"/>
     </row>
@@ -25000,13 +25199,10 @@
         <v>2010</v>
       </c>
       <c r="H1011" s="12">
-        <f>J1011/SUM(J1011,J1022,J1033,J1044,J1055)</f>
-        <v>0.10934544078698449</v>
+        <v>1</v>
       </c>
       <c r="I1011" s="3"/>
-      <c r="J1011" s="3">
-        <v>57800</v>
-      </c>
+      <c r="J1011" s="3"/>
       <c r="K1011" s="3"/>
       <c r="L1011" s="3"/>
     </row>
@@ -25223,9 +25419,13 @@
       <c r="G1020" s="3">
         <v>2008</v>
       </c>
-      <c r="H1020" s="12"/>
+      <c r="H1020" s="12">
+        <v>0</v>
+      </c>
       <c r="I1020" s="3"/>
-      <c r="J1020" s="3"/>
+      <c r="J1020" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1020" s="3"/>
       <c r="L1020" s="3"/>
     </row>
@@ -25244,7 +25444,9 @@
       <c r="G1021" s="3">
         <v>2009</v>
       </c>
-      <c r="H1021" s="12"/>
+      <c r="H1021" s="12">
+        <v>1</v>
+      </c>
       <c r="I1021" s="3"/>
       <c r="J1021" s="3"/>
       <c r="K1021" s="3"/>
@@ -25267,7 +25469,7 @@
       </c>
       <c r="H1022" s="12">
         <f>J1022/SUM(J1011,J1022,J1033,J1044,J1055)</f>
-        <v>0.17858494135452138</v>
+        <v>0.20050977060322855</v>
       </c>
       <c r="I1022" s="3"/>
       <c r="J1022" s="3">
@@ -25489,9 +25691,13 @@
       <c r="G1031" s="3">
         <v>2008</v>
       </c>
-      <c r="H1031" s="12"/>
+      <c r="H1031" s="12">
+        <v>0</v>
+      </c>
       <c r="I1031" s="3"/>
-      <c r="J1031" s="3"/>
+      <c r="J1031" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1031" s="3"/>
       <c r="L1031" s="3"/>
     </row>
@@ -25510,7 +25716,9 @@
       <c r="G1032" s="3">
         <v>2009</v>
       </c>
-      <c r="H1032" s="12"/>
+      <c r="H1032" s="12">
+        <v>1</v>
+      </c>
       <c r="I1032" s="3"/>
       <c r="J1032" s="3"/>
       <c r="K1032" s="3"/>
@@ -25533,7 +25741,7 @@
       </c>
       <c r="H1033" s="12">
         <f>J1033/SUM(J1011,J1022,J1033,J1044,J1055)</f>
-        <v>0.25463488460083239</v>
+        <v>0.2858963466440102</v>
       </c>
       <c r="I1033" s="3"/>
       <c r="J1033" s="3">
@@ -25755,9 +25963,13 @@
       <c r="G1042" s="3">
         <v>2008</v>
       </c>
-      <c r="H1042" s="12"/>
+      <c r="H1042" s="12">
+        <v>0</v>
+      </c>
       <c r="I1042" s="3"/>
-      <c r="J1042" s="3"/>
+      <c r="J1042" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1042" s="3"/>
       <c r="L1042" s="3"/>
     </row>
@@ -25776,7 +25988,9 @@
       <c r="G1043" s="3">
         <v>2009</v>
       </c>
-      <c r="H1043" s="12"/>
+      <c r="H1043" s="12">
+        <v>1</v>
+      </c>
       <c r="I1043" s="3"/>
       <c r="J1043" s="3"/>
       <c r="K1043" s="3"/>
@@ -25799,7 +26013,7 @@
       </c>
       <c r="H1044" s="12">
         <f>J1044/SUM(J1011,J1022,J1033,J1044,J1055)</f>
-        <v>0.30741581536133183</v>
+        <v>0.34515717926932882</v>
       </c>
       <c r="I1044" s="3"/>
       <c r="J1044" s="3">
@@ -26021,9 +26235,13 @@
       <c r="G1053" s="3">
         <v>2008</v>
       </c>
-      <c r="H1053" s="12"/>
+      <c r="H1053" s="12">
+        <v>0</v>
+      </c>
       <c r="I1053" s="3"/>
-      <c r="J1053" s="3"/>
+      <c r="J1053" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1053" s="3"/>
       <c r="L1053" s="3"/>
     </row>
@@ -26042,7 +26260,9 @@
       <c r="G1054" s="3">
         <v>2009</v>
       </c>
-      <c r="H1054" s="12"/>
+      <c r="H1054" s="12">
+        <v>1</v>
+      </c>
       <c r="I1054" s="3"/>
       <c r="J1054" s="3"/>
       <c r="K1054" s="3"/>
@@ -26065,7 +26285,7 @@
       </c>
       <c r="H1055" s="12">
         <f>J1055/SUM(J1011,J1022,J1033,J1044,J1055)</f>
-        <v>0.15001891789632993</v>
+        <v>0.16843670348343245</v>
       </c>
       <c r="I1055" s="3"/>
       <c r="J1055" s="3">
@@ -26245,9 +26465,13 @@
       <c r="G1062" s="3">
         <v>2006</v>
       </c>
-      <c r="H1062" s="12"/>
+      <c r="H1062" s="12">
+        <v>0</v>
+      </c>
       <c r="I1062" s="3"/>
-      <c r="J1062" s="3"/>
+      <c r="J1062" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1062" s="3"/>
       <c r="L1062" s="3"/>
     </row>
@@ -26266,7 +26490,9 @@
       <c r="G1063" s="3">
         <v>2007</v>
       </c>
-      <c r="H1063" s="12"/>
+      <c r="H1063" s="12">
+        <v>1</v>
+      </c>
       <c r="I1063" s="3"/>
       <c r="J1063" s="3"/>
       <c r="K1063" s="3"/>
@@ -26547,9 +26773,13 @@
       <c r="G1074" s="3">
         <v>2006</v>
       </c>
-      <c r="H1074" s="12"/>
+      <c r="H1074" s="12">
+        <v>0</v>
+      </c>
       <c r="I1074" s="3"/>
-      <c r="J1074" s="3"/>
+      <c r="J1074" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1074" s="3"/>
       <c r="L1074" s="3"/>
     </row>
@@ -26568,7 +26798,9 @@
       <c r="G1075" s="3">
         <v>2007</v>
       </c>
-      <c r="H1075" s="12"/>
+      <c r="H1075" s="12">
+        <v>1</v>
+      </c>
       <c r="I1075" s="3"/>
       <c r="J1075" s="3"/>
       <c r="K1075" s="3"/>
@@ -26849,9 +27081,13 @@
       <c r="G1086" s="3">
         <v>2006</v>
       </c>
-      <c r="H1086" s="12"/>
+      <c r="H1086" s="12">
+        <v>0</v>
+      </c>
       <c r="I1086" s="3"/>
-      <c r="J1086" s="3"/>
+      <c r="J1086" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1086" s="3"/>
       <c r="L1086" s="3"/>
     </row>
@@ -26870,7 +27106,9 @@
       <c r="G1087" s="3">
         <v>2007</v>
       </c>
-      <c r="H1087" s="12"/>
+      <c r="H1087" s="12">
+        <v>1</v>
+      </c>
       <c r="I1087" s="3"/>
       <c r="J1087" s="3"/>
       <c r="K1087" s="3"/>
@@ -27151,9 +27389,13 @@
       <c r="G1098" s="3">
         <v>2006</v>
       </c>
-      <c r="H1098" s="12"/>
+      <c r="H1098" s="12">
+        <v>0</v>
+      </c>
       <c r="I1098" s="3"/>
-      <c r="J1098" s="3"/>
+      <c r="J1098" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1098" s="3"/>
       <c r="L1098" s="3"/>
     </row>
@@ -27172,7 +27414,9 @@
       <c r="G1099" s="3">
         <v>2007</v>
       </c>
-      <c r="H1099" s="12"/>
+      <c r="H1099" s="12">
+        <v>1</v>
+      </c>
       <c r="I1099" s="3"/>
       <c r="J1099" s="3"/>
       <c r="K1099" s="3"/>
@@ -27453,9 +27697,13 @@
       <c r="G1110" s="3">
         <v>2006</v>
       </c>
-      <c r="H1110" s="12"/>
+      <c r="H1110" s="12">
+        <v>0</v>
+      </c>
       <c r="I1110" s="3"/>
-      <c r="J1110" s="3"/>
+      <c r="J1110" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1110" s="3"/>
       <c r="L1110" s="3"/>
     </row>
@@ -27474,7 +27722,9 @@
       <c r="G1111" s="3">
         <v>2007</v>
       </c>
-      <c r="H1111" s="12"/>
+      <c r="H1111" s="12">
+        <v>1</v>
+      </c>
       <c r="I1111" s="3"/>
       <c r="J1111" s="3"/>
       <c r="K1111" s="3"/>
@@ -27755,9 +28005,13 @@
       <c r="G1122" s="3">
         <v>2006</v>
       </c>
-      <c r="H1122" s="12"/>
+      <c r="H1122" s="12">
+        <v>0</v>
+      </c>
       <c r="I1122" s="3"/>
-      <c r="J1122" s="3"/>
+      <c r="J1122" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1122" s="3"/>
       <c r="L1122" s="3"/>
     </row>
@@ -27776,7 +28030,9 @@
       <c r="G1123" s="3">
         <v>2007</v>
       </c>
-      <c r="H1123" s="12"/>
+      <c r="H1123" s="12">
+        <v>1</v>
+      </c>
       <c r="I1123" s="3"/>
       <c r="J1123" s="3"/>
       <c r="K1123" s="3"/>
@@ -28057,9 +28313,13 @@
       <c r="G1134" s="3">
         <v>2006</v>
       </c>
-      <c r="H1134" s="12"/>
+      <c r="H1134" s="12">
+        <v>0</v>
+      </c>
       <c r="I1134" s="3"/>
-      <c r="J1134" s="3"/>
+      <c r="J1134" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1134" s="3"/>
       <c r="L1134" s="3"/>
     </row>
@@ -28078,7 +28338,9 @@
       <c r="G1135" s="3">
         <v>2007</v>
       </c>
-      <c r="H1135" s="12"/>
+      <c r="H1135" s="12">
+        <v>1</v>
+      </c>
       <c r="I1135" s="3"/>
       <c r="J1135" s="3"/>
       <c r="K1135" s="3"/>
@@ -28359,9 +28621,13 @@
       <c r="G1146" s="3">
         <v>2006</v>
       </c>
-      <c r="H1146" s="12"/>
+      <c r="H1146" s="12">
+        <v>0</v>
+      </c>
       <c r="I1146" s="3"/>
-      <c r="J1146" s="3"/>
+      <c r="J1146" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1146" s="3"/>
       <c r="L1146" s="3"/>
     </row>
@@ -28380,7 +28646,9 @@
       <c r="G1147" s="3">
         <v>2007</v>
       </c>
-      <c r="H1147" s="12"/>
+      <c r="H1147" s="12">
+        <v>1</v>
+      </c>
       <c r="I1147" s="3"/>
       <c r="J1147" s="3"/>
       <c r="K1147" s="3"/>
@@ -28661,9 +28929,13 @@
       <c r="G1158" s="3">
         <v>2006</v>
       </c>
-      <c r="H1158" s="12"/>
+      <c r="H1158" s="12">
+        <v>0</v>
+      </c>
       <c r="I1158" s="3"/>
-      <c r="J1158" s="3"/>
+      <c r="J1158" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1158" s="3"/>
       <c r="L1158" s="3"/>
     </row>
@@ -28682,7 +28954,9 @@
       <c r="G1159" s="3">
         <v>2007</v>
       </c>
-      <c r="H1159" s="12"/>
+      <c r="H1159" s="12">
+        <v>1</v>
+      </c>
       <c r="I1159" s="3"/>
       <c r="J1159" s="3"/>
       <c r="K1159" s="3"/>
@@ -28963,9 +29237,13 @@
       <c r="G1170" s="3">
         <v>2006</v>
       </c>
-      <c r="H1170" s="12"/>
+      <c r="H1170" s="12">
+        <v>0</v>
+      </c>
       <c r="I1170" s="3"/>
-      <c r="J1170" s="3"/>
+      <c r="J1170" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1170" s="3"/>
       <c r="L1170" s="3"/>
     </row>
@@ -28984,7 +29262,9 @@
       <c r="G1171" s="3">
         <v>2007</v>
       </c>
-      <c r="H1171" s="12"/>
+      <c r="H1171" s="12">
+        <v>1</v>
+      </c>
       <c r="I1171" s="3"/>
       <c r="J1171" s="3"/>
       <c r="K1171" s="3"/>
@@ -29265,9 +29545,13 @@
       <c r="G1182" s="3">
         <v>2006</v>
       </c>
-      <c r="H1182" s="12"/>
+      <c r="H1182" s="12">
+        <v>0</v>
+      </c>
       <c r="I1182" s="3"/>
-      <c r="J1182" s="3"/>
+      <c r="J1182" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1182" s="3"/>
       <c r="L1182" s="3"/>
     </row>
@@ -29286,7 +29570,9 @@
       <c r="G1183" s="3">
         <v>2007</v>
       </c>
-      <c r="H1183" s="12"/>
+      <c r="H1183" s="12">
+        <v>1</v>
+      </c>
       <c r="I1183" s="3"/>
       <c r="J1183" s="3"/>
       <c r="K1183" s="3"/>
@@ -29567,9 +29853,13 @@
       <c r="G1194" s="3">
         <v>2006</v>
       </c>
-      <c r="H1194" s="12"/>
+      <c r="H1194" s="12">
+        <v>0</v>
+      </c>
       <c r="I1194" s="3"/>
-      <c r="J1194" s="3"/>
+      <c r="J1194" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1194" s="3"/>
       <c r="L1194" s="3"/>
     </row>
@@ -29588,7 +29878,9 @@
       <c r="G1195" s="3">
         <v>2007</v>
       </c>
-      <c r="H1195" s="12"/>
+      <c r="H1195" s="12">
+        <v>1</v>
+      </c>
       <c r="I1195" s="3"/>
       <c r="J1195" s="3"/>
       <c r="K1195" s="3"/>
@@ -29869,9 +30161,13 @@
       <c r="G1206" s="3">
         <v>2006</v>
       </c>
-      <c r="H1206" s="12"/>
+      <c r="H1206" s="12">
+        <v>0</v>
+      </c>
       <c r="I1206" s="3"/>
-      <c r="J1206" s="3"/>
+      <c r="J1206" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1206" s="3"/>
       <c r="L1206" s="3"/>
     </row>
@@ -29890,7 +30186,9 @@
       <c r="G1207" s="3">
         <v>2007</v>
       </c>
-      <c r="H1207" s="12"/>
+      <c r="H1207" s="12">
+        <v>1</v>
+      </c>
       <c r="I1207" s="3"/>
       <c r="J1207" s="3"/>
       <c r="K1207" s="3"/>
@@ -30171,9 +30469,13 @@
       <c r="G1218" s="3">
         <v>2006</v>
       </c>
-      <c r="H1218" s="12"/>
+      <c r="H1218" s="12">
+        <v>0</v>
+      </c>
       <c r="I1218" s="3"/>
-      <c r="J1218" s="3"/>
+      <c r="J1218" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1218" s="3"/>
       <c r="L1218" s="3"/>
     </row>
@@ -30192,7 +30494,9 @@
       <c r="G1219" s="3">
         <v>2007</v>
       </c>
-      <c r="H1219" s="12"/>
+      <c r="H1219" s="12">
+        <v>1</v>
+      </c>
       <c r="I1219" s="3"/>
       <c r="J1219" s="3"/>
       <c r="K1219" s="3"/>
@@ -30473,9 +30777,13 @@
       <c r="G1230" s="3">
         <v>2006</v>
       </c>
-      <c r="H1230" s="12"/>
+      <c r="H1230" s="12">
+        <v>0</v>
+      </c>
       <c r="I1230" s="3"/>
-      <c r="J1230" s="3"/>
+      <c r="J1230" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="K1230" s="3"/>
       <c r="L1230" s="3"/>
     </row>
@@ -30494,7 +30802,9 @@
       <c r="G1231" s="3">
         <v>2007</v>
       </c>
-      <c r="H1231" s="12"/>
+      <c r="H1231" s="12">
+        <v>1</v>
+      </c>
       <c r="I1231" s="3"/>
       <c r="J1231" s="3"/>
       <c r="K1231" s="3"/>
@@ -30542,7 +30852,7 @@
         <v>2009</v>
       </c>
       <c r="H1233" s="12">
-        <f t="shared" ref="H1233:H1247" si="80">J1233/SUM(J1185,J1197,J1209,J1221,J1233)</f>
+        <f t="shared" ref="H1233:H1241" si="80">J1233/SUM(J1185,J1197,J1209,J1221,J1233)</f>
         <v>0.16287224247316576</v>
       </c>
       <c r="I1233" s="3"/>
@@ -30760,28 +31070,27 @@
       <c r="K1241" s="3"/>
       <c r="L1241" s="3"/>
     </row>
-    <row r="1242" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1242" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B1242" s="43"/>
       <c r="C1242" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D1242" s="3"/>
       <c r="E1242" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1242" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1242" s="17">
-        <v>2012</v>
+        <v>15</v>
+      </c>
+      <c r="G1242" s="3">
+        <v>2006</v>
       </c>
       <c r="H1242" s="12">
-        <f t="shared" si="80"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1242" s="3"/>
-      <c r="J1242" s="24">
-        <v>20808</v>
+      <c r="J1242" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1243" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30791,22 +31100,19 @@
       </c>
       <c r="D1243" s="3"/>
       <c r="E1243" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1243" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1243" s="17">
-        <v>2013</v>
+        <v>15</v>
+      </c>
+      <c r="G1243" s="3">
+        <v>2007</v>
       </c>
       <c r="H1243" s="12">
-        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="I1243" s="3"/>
-      <c r="J1243" s="24">
-        <v>22974</v>
-      </c>
+      <c r="J1243" s="3"/>
     </row>
     <row r="1244" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1244" s="43"/>
@@ -30815,21 +31121,21 @@
       </c>
       <c r="D1244" s="3"/>
       <c r="E1244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1244" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1244" s="17">
-        <v>2014</v>
+        <v>15</v>
+      </c>
+      <c r="G1244" s="3">
+        <v>2008</v>
       </c>
       <c r="H1244" s="12">
-        <f t="shared" si="80"/>
-        <v>6.5400772892341225E-2</v>
+        <f>J1244/SUM(J1244,J1256,J1268,J1280,J1292)</f>
+        <v>4.2391356236971503E-2</v>
       </c>
       <c r="I1244" s="3"/>
-      <c r="J1244" s="24">
-        <v>25267</v>
+      <c r="J1244" s="29">
+        <v>15984</v>
       </c>
     </row>
     <row r="1245" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30839,21 +31145,21 @@
       </c>
       <c r="D1245" s="3"/>
       <c r="E1245" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1245" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1245" s="17">
-        <v>2015</v>
+        <v>15</v>
+      </c>
+      <c r="G1245" s="3">
+        <v>2009</v>
       </c>
       <c r="H1245" s="12">
-        <f t="shared" si="80"/>
-        <v>6.829287515762926E-2</v>
+        <f t="shared" ref="H1245:H1253" si="81">J1245/SUM(J1245,J1257,J1269,J1281,J1293)</f>
+        <v>4.5727331205933176E-2</v>
       </c>
       <c r="I1245" s="3"/>
-      <c r="J1245" s="24">
-        <v>27728</v>
+      <c r="J1245" s="21">
+        <v>18127</v>
       </c>
     </row>
     <row r="1246" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30863,21 +31169,21 @@
       </c>
       <c r="D1246" s="3"/>
       <c r="E1246" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1246" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1246" s="17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H1246" s="12">
-        <f t="shared" si="80"/>
-        <v>7.0673938120738647E-2</v>
+        <f t="shared" si="81"/>
+        <v>4.8174225432609873E-2</v>
       </c>
       <c r="I1246" s="3"/>
-      <c r="J1246" s="24">
-        <v>30143</v>
+      <c r="J1246" s="21">
+        <v>20061</v>
       </c>
     </row>
     <row r="1247" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30887,24 +31193,24 @@
       </c>
       <c r="D1247" s="3"/>
       <c r="E1247" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1247" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1247" s="17">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H1247" s="12">
-        <f t="shared" si="80"/>
-        <v>7.3079073929090702E-2</v>
+        <f t="shared" si="81"/>
+        <v>4.9120439848916668E-2</v>
       </c>
       <c r="I1247" s="3"/>
-      <c r="J1247" s="25">
-        <v>32670</v>
-      </c>
-    </row>
-    <row r="1248" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1247" s="21">
+        <v>21406</v>
+      </c>
+    </row>
+    <row r="1248" spans="2:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1248" s="43"/>
       <c r="C1248" s="16" t="s">
         <v>37</v>
@@ -30916,12 +31222,17 @@
       <c r="F1248" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1248" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H1248" s="12"/>
+      <c r="G1248" s="17">
+        <v>2012</v>
+      </c>
+      <c r="H1248" s="12">
+        <f t="shared" si="81"/>
+        <v>4.9722871599003432E-2</v>
+      </c>
       <c r="I1248" s="3"/>
-      <c r="J1248" s="3"/>
+      <c r="J1248" s="21">
+        <v>22652</v>
+      </c>
     </row>
     <row r="1249" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1249" s="43"/>
@@ -30935,12 +31246,17 @@
       <c r="F1249" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1249" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H1249" s="12"/>
+      <c r="G1249" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1249" s="12">
+        <f t="shared" si="81"/>
+        <v>4.8170693177749226E-2</v>
+      </c>
       <c r="I1249" s="3"/>
-      <c r="J1249" s="3"/>
+      <c r="J1249" s="21">
+        <v>22870</v>
+      </c>
     </row>
     <row r="1250" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1250" s="43"/>
@@ -30954,16 +31270,16 @@
       <c r="F1250" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1250" s="3">
-        <v>2008</v>
+      <c r="G1250" s="17">
+        <v>2014</v>
       </c>
       <c r="H1250" s="12">
-        <f>J1250/SUM(J1250,J1262,J1274,J1286,J1298)</f>
-        <v>4.2391356236971503E-2</v>
+        <f t="shared" si="81"/>
+        <v>4.6516561965168651E-2</v>
       </c>
       <c r="I1250" s="3"/>
-      <c r="J1250" s="29">
-        <v>15984</v>
+      <c r="J1250" s="21">
+        <v>23021</v>
       </c>
     </row>
     <row r="1251" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30978,16 +31294,16 @@
       <c r="F1251" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1251" s="3">
-        <v>2009</v>
+      <c r="G1251" s="17">
+        <v>2015</v>
       </c>
       <c r="H1251" s="12">
-        <f t="shared" ref="H1251:H1259" si="81">J1251/SUM(J1251,J1263,J1275,J1287,J1299)</f>
-        <v>4.5727331205933176E-2</v>
+        <f t="shared" si="81"/>
+        <v>4.41962136389756E-2</v>
       </c>
       <c r="I1251" s="3"/>
       <c r="J1251" s="21">
-        <v>18127</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="1252" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31003,15 +31319,15 @@
         <v>15</v>
       </c>
       <c r="G1252" s="17">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H1252" s="12">
         <f t="shared" si="81"/>
-        <v>4.8174225432609873E-2</v>
+        <v>4.1725402802134319E-2</v>
       </c>
       <c r="I1252" s="3"/>
       <c r="J1252" s="21">
-        <v>20061</v>
+        <v>22318</v>
       </c>
     </row>
     <row r="1253" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31027,39 +31343,38 @@
         <v>15</v>
       </c>
       <c r="G1253" s="17">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="H1253" s="12">
         <f t="shared" si="81"/>
-        <v>4.9120439848916668E-2</v>
+        <v>3.8996098585601942E-2</v>
       </c>
       <c r="I1253" s="3"/>
-      <c r="J1253" s="21">
-        <v>21406</v>
-      </c>
-    </row>
-    <row r="1254" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1253" s="22">
+        <v>21610</v>
+      </c>
+    </row>
+    <row r="1254" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B1254" s="43"/>
       <c r="C1254" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D1254" s="3"/>
       <c r="E1254" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1254" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1254" s="17">
-        <v>2012</v>
+      <c r="G1254" s="3">
+        <v>2006</v>
       </c>
       <c r="H1254" s="12">
-        <f t="shared" si="81"/>
-        <v>4.9722871599003432E-2</v>
+        <v>0</v>
       </c>
       <c r="I1254" s="3"/>
-      <c r="J1254" s="21">
-        <v>22652</v>
+      <c r="J1254" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1255" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31069,22 +31384,19 @@
       </c>
       <c r="D1255" s="3"/>
       <c r="E1255" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1255" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1255" s="17">
-        <v>2013</v>
+      <c r="G1255" s="3">
+        <v>2007</v>
       </c>
       <c r="H1255" s="12">
-        <f t="shared" si="81"/>
-        <v>4.8170693177749226E-2</v>
+        <v>1</v>
       </c>
       <c r="I1255" s="3"/>
-      <c r="J1255" s="21">
-        <v>22870</v>
-      </c>
+      <c r="J1255" s="3"/>
     </row>
     <row r="1256" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1256" s="43"/>
@@ -31093,21 +31405,21 @@
       </c>
       <c r="D1256" s="3"/>
       <c r="E1256" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1256" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1256" s="17">
-        <v>2014</v>
+      <c r="G1256" s="3">
+        <v>2008</v>
       </c>
       <c r="H1256" s="12">
-        <f t="shared" si="81"/>
-        <v>4.6516561965168651E-2</v>
+        <f>J1256/SUM(J1244,J1256,J1268,J1280,J1292)</f>
+        <v>0.14773589209087196</v>
       </c>
       <c r="I1256" s="3"/>
-      <c r="J1256" s="21">
-        <v>23021</v>
+      <c r="J1256" s="29">
+        <v>55705</v>
       </c>
     </row>
     <row r="1257" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31117,21 +31429,21 @@
       </c>
       <c r="D1257" s="3"/>
       <c r="E1257" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1257" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1257" s="17">
-        <v>2015</v>
+      <c r="G1257" s="3">
+        <v>2009</v>
       </c>
       <c r="H1257" s="12">
-        <f t="shared" si="81"/>
-        <v>4.41962136389756E-2</v>
+        <f t="shared" ref="H1257:H1264" si="82">J1257/SUM(J1245,J1257,J1269,J1281,J1293)</f>
+        <v>0.15072840331470808</v>
       </c>
       <c r="I1257" s="3"/>
       <c r="J1257" s="21">
-        <v>22766</v>
+        <v>59751</v>
       </c>
     </row>
     <row r="1258" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31141,21 +31453,21 @@
       </c>
       <c r="D1258" s="3"/>
       <c r="E1258" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1258" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1258" s="17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H1258" s="12">
-        <f t="shared" si="81"/>
-        <v>4.1725402802134319E-2</v>
+        <f t="shared" si="82"/>
+        <v>0.15551382478519593</v>
       </c>
       <c r="I1258" s="3"/>
       <c r="J1258" s="21">
-        <v>22318</v>
+        <v>64760</v>
       </c>
     </row>
     <row r="1259" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31165,24 +31477,24 @@
       </c>
       <c r="D1259" s="3"/>
       <c r="E1259" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1259" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1259" s="17">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H1259" s="12">
-        <f t="shared" si="81"/>
-        <v>3.8996098585601942E-2</v>
+        <f t="shared" si="82"/>
+        <v>0.16090007480735957</v>
       </c>
       <c r="I1259" s="3"/>
-      <c r="J1259" s="22">
-        <v>21610</v>
-      </c>
-    </row>
-    <row r="1260" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1259" s="21">
+        <v>70118</v>
+      </c>
+    </row>
+    <row r="1260" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1260" s="43"/>
       <c r="C1260" s="16" t="s">
         <v>37</v>
@@ -31194,12 +31506,17 @@
       <c r="F1260" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1260" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H1260" s="12"/>
+      <c r="G1260" s="17">
+        <v>2012</v>
+      </c>
+      <c r="H1260" s="12">
+        <f t="shared" si="82"/>
+        <v>0.16583363515634433</v>
+      </c>
       <c r="I1260" s="3"/>
-      <c r="J1260" s="3"/>
+      <c r="J1260" s="21">
+        <v>75548</v>
+      </c>
     </row>
     <row r="1261" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1261" s="43"/>
@@ -31213,12 +31530,17 @@
       <c r="F1261" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1261" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H1261" s="12"/>
+      <c r="G1261" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1261" s="12">
+        <f t="shared" si="82"/>
+        <v>0.17163889883522548</v>
+      </c>
       <c r="I1261" s="3"/>
-      <c r="J1261" s="3"/>
+      <c r="J1261" s="21">
+        <v>81489</v>
+      </c>
     </row>
     <row r="1262" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1262" s="43"/>
@@ -31232,16 +31554,16 @@
       <c r="F1262" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1262" s="3">
-        <v>2008</v>
+      <c r="G1262" s="17">
+        <v>2014</v>
       </c>
       <c r="H1262" s="12">
-        <f>J1262/SUM(J1250,J1262,J1274,J1286,J1298)</f>
-        <v>0.14773589209087196</v>
+        <f t="shared" si="82"/>
+        <v>0.17852329465204012</v>
       </c>
       <c r="I1262" s="3"/>
-      <c r="J1262" s="29">
-        <v>55705</v>
+      <c r="J1262" s="21">
+        <v>88351</v>
       </c>
     </row>
     <row r="1263" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31256,16 +31578,16 @@
       <c r="F1263" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1263" s="3">
-        <v>2009</v>
+      <c r="G1263" s="17">
+        <v>2015</v>
       </c>
       <c r="H1263" s="12">
-        <f t="shared" ref="H1263:H1270" si="82">J1263/SUM(J1251,J1263,J1275,J1287,J1299)</f>
-        <v>0.15072840331470808</v>
+        <f t="shared" si="82"/>
+        <v>0.18488600537358865</v>
       </c>
       <c r="I1263" s="3"/>
       <c r="J1263" s="21">
-        <v>59751</v>
+        <v>95237</v>
       </c>
     </row>
     <row r="1264" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31281,15 +31603,15 @@
         <v>15</v>
       </c>
       <c r="G1264" s="17">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H1264" s="12">
         <f t="shared" si="82"/>
-        <v>0.15551382478519593</v>
+        <v>0.19074256185522681</v>
       </c>
       <c r="I1264" s="3"/>
       <c r="J1264" s="21">
-        <v>64760</v>
+        <v>102024</v>
       </c>
     </row>
     <row r="1265" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31299,45 +31621,44 @@
       </c>
       <c r="D1265" s="3"/>
       <c r="E1265" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1265" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1265" s="17">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="H1265" s="12">
-        <f t="shared" si="82"/>
-        <v>0.16090007480735957</v>
+        <f>J1265/SUM(J1253,J1265,J1277,J1289,J1301)</f>
+        <v>0.19492635674302275</v>
       </c>
       <c r="I1265" s="3"/>
-      <c r="J1265" s="21">
-        <v>70118</v>
-      </c>
-    </row>
-    <row r="1266" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1265" s="22">
+        <v>108020</v>
+      </c>
+    </row>
+    <row r="1266" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B1266" s="43"/>
       <c r="C1266" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D1266" s="3"/>
       <c r="E1266" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1266" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1266" s="17">
-        <v>2012</v>
+      <c r="G1266" s="3">
+        <v>2006</v>
       </c>
       <c r="H1266" s="12">
-        <f t="shared" si="82"/>
-        <v>0.16583363515634433</v>
+        <v>0</v>
       </c>
       <c r="I1266" s="3"/>
-      <c r="J1266" s="21">
-        <v>75548</v>
+      <c r="J1266" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1267" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31347,22 +31668,19 @@
       </c>
       <c r="D1267" s="3"/>
       <c r="E1267" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1267" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1267" s="17">
-        <v>2013</v>
+      <c r="G1267" s="3">
+        <v>2007</v>
       </c>
       <c r="H1267" s="12">
-        <f t="shared" si="82"/>
-        <v>0.17163889883522548</v>
+        <v>1</v>
       </c>
       <c r="I1267" s="3"/>
-      <c r="J1267" s="21">
-        <v>81489</v>
-      </c>
+      <c r="J1267" s="3"/>
     </row>
     <row r="1268" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1268" s="43"/>
@@ -31371,21 +31689,21 @@
       </c>
       <c r="D1268" s="3"/>
       <c r="E1268" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1268" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1268" s="17">
-        <v>2014</v>
+      <c r="G1268" s="3">
+        <v>2008</v>
       </c>
       <c r="H1268" s="12">
-        <f t="shared" si="82"/>
-        <v>0.17852329465204012</v>
+        <f>J1268/SUM(J1244,J1256,J1268,J1280,J1292)</f>
+        <v>0.32657575227153385</v>
       </c>
       <c r="I1268" s="3"/>
-      <c r="J1268" s="21">
-        <v>88351</v>
+      <c r="J1268" s="29">
+        <v>123138</v>
       </c>
     </row>
     <row r="1269" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31395,21 +31713,21 @@
       </c>
       <c r="D1269" s="3"/>
       <c r="E1269" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1269" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1269" s="17">
-        <v>2015</v>
+      <c r="G1269" s="3">
+        <v>2009</v>
       </c>
       <c r="H1269" s="12">
-        <f t="shared" si="82"/>
-        <v>0.18488600537358865</v>
+        <f t="shared" ref="H1269:H1276" si="83">J1269/SUM(J1245,J1257,J1269,J1281,J1293)</f>
+        <v>0.29678745758863817</v>
       </c>
       <c r="I1269" s="3"/>
       <c r="J1269" s="21">
-        <v>95237</v>
+        <v>117651</v>
       </c>
     </row>
     <row r="1270" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31419,21 +31737,21 @@
       </c>
       <c r="D1270" s="3"/>
       <c r="E1270" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1270" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1270" s="17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H1270" s="12">
-        <f t="shared" si="82"/>
-        <v>0.19074256185522681</v>
+        <f t="shared" si="83"/>
+        <v>0.27056187653988945</v>
       </c>
       <c r="I1270" s="3"/>
       <c r="J1270" s="21">
-        <v>102024</v>
+        <v>112669</v>
       </c>
     </row>
     <row r="1271" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31443,24 +31761,24 @@
       </c>
       <c r="D1271" s="3"/>
       <c r="E1271" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1271" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1271" s="17">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H1271" s="12">
-        <f>J1271/SUM(J1259,J1271,J1283,J1295,J1307)</f>
-        <v>0.19492635674302275</v>
+        <f t="shared" si="83"/>
+        <v>0.24878265937868588</v>
       </c>
       <c r="I1271" s="3"/>
-      <c r="J1271" s="22">
-        <v>108020</v>
-      </c>
-    </row>
-    <row r="1272" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1271" s="21">
+        <v>108416</v>
+      </c>
+    </row>
+    <row r="1272" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1272" s="43"/>
       <c r="C1272" s="16" t="s">
         <v>37</v>
@@ -31472,12 +31790,17 @@
       <c r="F1272" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1272" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H1272" s="12"/>
+      <c r="G1272" s="17">
+        <v>2012</v>
+      </c>
+      <c r="H1272" s="12">
+        <f t="shared" si="83"/>
+        <v>0.23173641522066005</v>
+      </c>
       <c r="I1272" s="3"/>
-      <c r="J1272" s="3"/>
+      <c r="J1272" s="21">
+        <v>105571</v>
+      </c>
     </row>
     <row r="1273" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1273" s="43"/>
@@ -31491,12 +31814,17 @@
       <c r="F1273" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1273" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H1273" s="12"/>
+      <c r="G1273" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1273" s="12">
+        <f t="shared" si="83"/>
+        <v>0.21819617920256124</v>
+      </c>
       <c r="I1273" s="3"/>
-      <c r="J1273" s="3"/>
+      <c r="J1273" s="21">
+        <v>103593</v>
+      </c>
     </row>
     <row r="1274" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1274" s="43"/>
@@ -31510,16 +31838,16 @@
       <c r="F1274" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1274" s="3">
-        <v>2008</v>
+      <c r="G1274" s="17">
+        <v>2014</v>
       </c>
       <c r="H1274" s="12">
-        <f>J1274/SUM(J1250,J1262,J1274,J1286,J1298)</f>
-        <v>0.32657575227153385</v>
+        <f t="shared" si="83"/>
+        <v>0.20656335939252252</v>
       </c>
       <c r="I1274" s="3"/>
-      <c r="J1274" s="29">
-        <v>123138</v>
+      <c r="J1274" s="21">
+        <v>102228</v>
       </c>
     </row>
     <row r="1275" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31534,16 +31862,16 @@
       <c r="F1275" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1275" s="3">
-        <v>2009</v>
+      <c r="G1275" s="17">
+        <v>2015</v>
       </c>
       <c r="H1275" s="12">
-        <f t="shared" ref="H1275:H1282" si="83">J1275/SUM(J1251,J1263,J1275,J1287,J1299)</f>
-        <v>0.29678745758863817</v>
+        <f t="shared" si="83"/>
+        <v>0.19694551864448898</v>
       </c>
       <c r="I1275" s="3"/>
       <c r="J1275" s="21">
-        <v>117651</v>
+        <v>101449</v>
       </c>
     </row>
     <row r="1276" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31559,15 +31887,15 @@
         <v>15</v>
       </c>
       <c r="G1276" s="17">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H1276" s="12">
         <f t="shared" si="83"/>
-        <v>0.27056187653988945</v>
+        <v>0.1915595705936681</v>
       </c>
       <c r="I1276" s="3"/>
       <c r="J1276" s="21">
-        <v>112669</v>
+        <v>102461</v>
       </c>
     </row>
     <row r="1277" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31583,39 +31911,38 @@
         <v>15</v>
       </c>
       <c r="G1277" s="17">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="H1277" s="12">
-        <f t="shared" si="83"/>
-        <v>0.24878265937868588</v>
+        <f>J1277/SUM(J1253,J1265,J1277,J1289,J1301)</f>
+        <v>0.19044207608660346</v>
       </c>
       <c r="I1277" s="3"/>
-      <c r="J1277" s="21">
-        <v>108416</v>
-      </c>
-    </row>
-    <row r="1278" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1277" s="22">
+        <v>105535</v>
+      </c>
+    </row>
+    <row r="1278" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B1278" s="43"/>
       <c r="C1278" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D1278" s="3"/>
       <c r="E1278" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1278" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1278" s="17">
-        <v>2012</v>
+      <c r="G1278" s="3">
+        <v>2006</v>
       </c>
       <c r="H1278" s="12">
-        <f t="shared" si="83"/>
-        <v>0.23173641522066005</v>
+        <v>0</v>
       </c>
       <c r="I1278" s="3"/>
-      <c r="J1278" s="21">
-        <v>105571</v>
+      <c r="J1278" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1279" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31625,22 +31952,19 @@
       </c>
       <c r="D1279" s="3"/>
       <c r="E1279" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1279" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1279" s="17">
-        <v>2013</v>
+      <c r="G1279" s="3">
+        <v>2007</v>
       </c>
       <c r="H1279" s="12">
-        <f t="shared" si="83"/>
-        <v>0.21819617920256124</v>
+        <v>1</v>
       </c>
       <c r="I1279" s="3"/>
-      <c r="J1279" s="21">
-        <v>103593</v>
-      </c>
+      <c r="J1279" s="3"/>
     </row>
     <row r="1280" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1280" s="43"/>
@@ -31649,21 +31973,21 @@
       </c>
       <c r="D1280" s="3"/>
       <c r="E1280" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1280" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1280" s="17">
-        <v>2014</v>
+      <c r="G1280" s="3">
+        <v>2008</v>
       </c>
       <c r="H1280" s="12">
-        <f t="shared" si="83"/>
-        <v>0.20656335939252252</v>
+        <f>J1280/SUM(J1244,J1256,J1268,J1280,J1292)</f>
+        <v>0.33306281792191123</v>
       </c>
       <c r="I1280" s="3"/>
-      <c r="J1280" s="21">
-        <v>102228</v>
+      <c r="J1280" s="29">
+        <v>125584</v>
       </c>
     </row>
     <row r="1281" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31673,21 +31997,21 @@
       </c>
       <c r="D1281" s="3"/>
       <c r="E1281" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1281" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1281" s="17">
-        <v>2015</v>
+      <c r="G1281" s="3">
+        <v>2009</v>
       </c>
       <c r="H1281" s="12">
-        <f t="shared" si="83"/>
-        <v>0.19694551864448898</v>
+        <f t="shared" ref="H1281:H1288" si="84">J1281/SUM(J1245,J1257,J1269,J1281,J1293)</f>
+        <v>0.34388456541755485</v>
       </c>
       <c r="I1281" s="3"/>
       <c r="J1281" s="21">
-        <v>101449</v>
+        <v>136321</v>
       </c>
     </row>
     <row r="1282" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31697,21 +32021,21 @@
       </c>
       <c r="D1282" s="3"/>
       <c r="E1282" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1282" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1282" s="17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H1282" s="12">
-        <f t="shared" si="83"/>
-        <v>0.1915595705936681</v>
+        <f t="shared" si="84"/>
+        <v>0.35006699869844821</v>
       </c>
       <c r="I1282" s="3"/>
       <c r="J1282" s="21">
-        <v>102461</v>
+        <v>145777</v>
       </c>
     </row>
     <row r="1283" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31721,24 +32045,24 @@
       </c>
       <c r="D1283" s="3"/>
       <c r="E1283" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1283" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1283" s="17">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H1283" s="12">
-        <f>J1283/SUM(J1259,J1271,J1283,J1295,J1307)</f>
-        <v>0.19044207608660346</v>
+        <f t="shared" si="84"/>
+        <v>0.35101402982197683</v>
       </c>
       <c r="I1283" s="3"/>
-      <c r="J1283" s="22">
-        <v>105535</v>
-      </c>
-    </row>
-    <row r="1284" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1283" s="21">
+        <v>152967</v>
+      </c>
+    </row>
+    <row r="1284" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1284" s="43"/>
       <c r="C1284" s="16" t="s">
         <v>37</v>
@@ -31750,12 +32074,17 @@
       <c r="F1284" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1284" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H1284" s="12"/>
+      <c r="G1284" s="17">
+        <v>2012</v>
+      </c>
+      <c r="H1284" s="12">
+        <f t="shared" si="84"/>
+        <v>0.34739938318351937</v>
+      </c>
       <c r="I1284" s="3"/>
-      <c r="J1284" s="3"/>
+      <c r="J1284" s="21">
+        <v>158263</v>
+      </c>
     </row>
     <row r="1285" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1285" s="43"/>
@@ -31769,12 +32098,17 @@
       <c r="F1285" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1285" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H1285" s="12"/>
+      <c r="G1285" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1285" s="12">
+        <f t="shared" si="84"/>
+        <v>0.34147060682014452</v>
+      </c>
       <c r="I1285" s="3"/>
-      <c r="J1285" s="3"/>
+      <c r="J1285" s="21">
+        <v>162120</v>
+      </c>
     </row>
     <row r="1286" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1286" s="43"/>
@@ -31788,16 +32122,16 @@
       <c r="F1286" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1286" s="3">
-        <v>2008</v>
+      <c r="G1286" s="17">
+        <v>2014</v>
       </c>
       <c r="H1286" s="12">
-        <f>J1286/SUM(J1250,J1262,J1274,J1286,J1298)</f>
-        <v>0.33306281792191123</v>
+        <f t="shared" si="84"/>
+        <v>0.33219707455460606</v>
       </c>
       <c r="I1286" s="3"/>
-      <c r="J1286" s="29">
-        <v>125584</v>
+      <c r="J1286" s="21">
+        <v>164404</v>
       </c>
     </row>
     <row r="1287" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31812,16 +32146,16 @@
       <c r="F1287" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1287" s="3">
-        <v>2009</v>
+      <c r="G1287" s="17">
+        <v>2015</v>
       </c>
       <c r="H1287" s="12">
-        <f t="shared" ref="H1287:H1294" si="84">J1287/SUM(J1251,J1263,J1275,J1287,J1299)</f>
-        <v>0.34388456541755485</v>
+        <f t="shared" si="84"/>
+        <v>0.32073024895556695</v>
       </c>
       <c r="I1287" s="3"/>
       <c r="J1287" s="21">
-        <v>136321</v>
+        <v>165212</v>
       </c>
     </row>
     <row r="1288" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31837,15 +32171,15 @@
         <v>15</v>
       </c>
       <c r="G1288" s="17">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H1288" s="12">
         <f t="shared" si="84"/>
-        <v>0.35006699869844821</v>
+        <v>0.30514435067435941</v>
       </c>
       <c r="I1288" s="3"/>
       <c r="J1288" s="21">
-        <v>145777</v>
+        <v>163215</v>
       </c>
     </row>
     <row r="1289" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31861,39 +32195,38 @@
         <v>15</v>
       </c>
       <c r="G1289" s="17">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="H1289" s="12">
-        <f t="shared" si="84"/>
-        <v>0.35101402982197683</v>
+        <f>J1289/SUM(J1253,J1265,J1277,J1289,J1301)</f>
+        <v>0.28576507061163064</v>
       </c>
       <c r="I1289" s="3"/>
-      <c r="J1289" s="21">
-        <v>152967</v>
-      </c>
-    </row>
-    <row r="1290" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1289" s="22">
+        <v>158359</v>
+      </c>
+    </row>
+    <row r="1290" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B1290" s="43"/>
       <c r="C1290" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D1290" s="3"/>
       <c r="E1290" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1290" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1290" s="17">
-        <v>2012</v>
+      <c r="G1290" s="3">
+        <v>2006</v>
       </c>
       <c r="H1290" s="12">
-        <f t="shared" si="84"/>
-        <v>0.34739938318351937</v>
+        <v>0</v>
       </c>
       <c r="I1290" s="3"/>
-      <c r="J1290" s="21">
-        <v>158263</v>
+      <c r="J1290" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="1291" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31903,22 +32236,19 @@
       </c>
       <c r="D1291" s="3"/>
       <c r="E1291" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1291" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1291" s="17">
-        <v>2013</v>
+      <c r="G1291" s="3">
+        <v>2007</v>
       </c>
       <c r="H1291" s="12">
-        <f t="shared" si="84"/>
-        <v>0.34147060682014452</v>
+        <v>1</v>
       </c>
       <c r="I1291" s="3"/>
-      <c r="J1291" s="21">
-        <v>162120</v>
-      </c>
+      <c r="J1291" s="3"/>
     </row>
     <row r="1292" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1292" s="43"/>
@@ -31927,21 +32257,21 @@
       </c>
       <c r="D1292" s="3"/>
       <c r="E1292" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1292" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1292" s="17">
-        <v>2014</v>
+      <c r="G1292" s="3">
+        <v>2008</v>
       </c>
       <c r="H1292" s="12">
-        <f t="shared" si="84"/>
-        <v>0.33219707455460606</v>
+        <f>J1292/SUM(J1244,J1256,J1268,J1280,J1292)</f>
+        <v>0.15023418147871151</v>
       </c>
       <c r="I1292" s="3"/>
-      <c r="J1292" s="21">
-        <v>164404</v>
+      <c r="J1292" s="30">
+        <v>56647</v>
       </c>
     </row>
     <row r="1293" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31951,21 +32281,21 @@
       </c>
       <c r="D1293" s="3"/>
       <c r="E1293" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1293" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1293" s="17">
-        <v>2015</v>
+      <c r="G1293" s="3">
+        <v>2009</v>
       </c>
       <c r="H1293" s="12">
-        <f t="shared" si="84"/>
-        <v>0.32073024895556695</v>
+        <f t="shared" ref="H1293:H1301" si="85">J1293/SUM(J1245,J1257,J1269,J1281,J1293)</f>
+        <v>0.16287224247316576</v>
       </c>
       <c r="I1293" s="3"/>
-      <c r="J1293" s="21">
-        <v>165212</v>
+      <c r="J1293" s="24">
+        <v>64565</v>
       </c>
     </row>
     <row r="1294" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31975,21 +32305,21 @@
       </c>
       <c r="D1294" s="3"/>
       <c r="E1294" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1294" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1294" s="17">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="H1294" s="12">
-        <f t="shared" si="84"/>
-        <v>0.30514435067435941</v>
+        <f t="shared" si="85"/>
+        <v>0.17568307454385654</v>
       </c>
       <c r="I1294" s="3"/>
-      <c r="J1294" s="21">
-        <v>163215</v>
+      <c r="J1294" s="24">
+        <v>73159</v>
       </c>
     </row>
     <row r="1295" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31999,24 +32329,24 @@
       </c>
       <c r="D1295" s="3"/>
       <c r="E1295" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1295" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1295" s="17">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H1295" s="12">
-        <f>J1295/SUM(J1259,J1271,J1283,J1295,J1307)</f>
-        <v>0.28576507061163064</v>
+        <f t="shared" si="85"/>
+        <v>0.19018279614306105</v>
       </c>
       <c r="I1295" s="3"/>
-      <c r="J1295" s="22">
-        <v>158359</v>
-      </c>
-    </row>
-    <row r="1296" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J1295" s="24">
+        <v>82879</v>
+      </c>
+    </row>
+    <row r="1296" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1296" s="43"/>
       <c r="C1296" s="16" t="s">
         <v>37</v>
@@ -32028,12 +32358,17 @@
       <c r="F1296" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1296" s="3">
-        <v>2006</v>
-      </c>
-      <c r="H1296" s="12"/>
+      <c r="G1296" s="17">
+        <v>2012</v>
+      </c>
+      <c r="H1296" s="12">
+        <f t="shared" si="85"/>
+        <v>0.20530769484047282</v>
+      </c>
       <c r="I1296" s="3"/>
-      <c r="J1296" s="3"/>
+      <c r="J1296" s="24">
+        <v>93531</v>
+      </c>
     </row>
     <row r="1297" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1297" s="43"/>
@@ -32047,12 +32382,17 @@
       <c r="F1297" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1297" s="3">
-        <v>2007</v>
-      </c>
-      <c r="H1297" s="12"/>
+      <c r="G1297" s="17">
+        <v>2013</v>
+      </c>
+      <c r="H1297" s="12">
+        <f t="shared" si="85"/>
+        <v>0.22052362196431957</v>
+      </c>
       <c r="I1297" s="3"/>
-      <c r="J1297" s="3"/>
+      <c r="J1297" s="24">
+        <v>104698</v>
+      </c>
     </row>
     <row r="1298" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1298" s="43"/>
@@ -32066,16 +32406,16 @@
       <c r="F1298" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1298" s="3">
-        <v>2008</v>
+      <c r="G1298" s="17">
+        <v>2014</v>
       </c>
       <c r="H1298" s="12">
-        <f>J1298/SUM(J1250,J1262,J1274,J1286,J1298)</f>
-        <v>0.15023418147871151</v>
+        <f t="shared" si="85"/>
+        <v>0.23619970943566262</v>
       </c>
       <c r="I1298" s="3"/>
-      <c r="J1298" s="30">
-        <v>56647</v>
+      <c r="J1298" s="24">
+        <v>116895</v>
       </c>
     </row>
     <row r="1299" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32090,16 +32430,16 @@
       <c r="F1299" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1299" s="3">
-        <v>2009</v>
+      <c r="G1299" s="17">
+        <v>2015</v>
       </c>
       <c r="H1299" s="12">
-        <f t="shared" ref="H1299:H1307" si="85">J1299/SUM(J1251,J1263,J1275,J1287,J1299)</f>
-        <v>0.16287224247316576</v>
+        <f t="shared" si="85"/>
+        <v>0.25324201338737984</v>
       </c>
       <c r="I1299" s="3"/>
       <c r="J1299" s="24">
-        <v>64565</v>
+        <v>130448</v>
       </c>
     </row>
     <row r="1300" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32115,15 +32455,15 @@
         <v>15</v>
       </c>
       <c r="G1300" s="17">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H1300" s="12">
         <f t="shared" si="85"/>
-        <v>0.17568307454385654</v>
+        <v>0.27082811407461138</v>
       </c>
       <c r="I1300" s="3"/>
       <c r="J1300" s="24">
-        <v>73159</v>
+        <v>144860</v>
       </c>
     </row>
     <row r="1301" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32139,164 +32479,20 @@
         <v>15</v>
       </c>
       <c r="G1301" s="17">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="H1301" s="12">
         <f t="shared" si="85"/>
-        <v>0.19018279614306105</v>
+        <v>0.28987039797314124</v>
       </c>
       <c r="I1301" s="3"/>
-      <c r="J1301" s="24">
-        <v>82879</v>
-      </c>
-    </row>
-    <row r="1302" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1302" s="43"/>
-      <c r="C1302" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1302" s="3"/>
-      <c r="E1302" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1302" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1302" s="17">
-        <v>2012</v>
-      </c>
-      <c r="H1302" s="12">
-        <f t="shared" si="85"/>
-        <v>0.20530769484047282</v>
-      </c>
-      <c r="I1302" s="3"/>
-      <c r="J1302" s="24">
-        <v>93531</v>
-      </c>
-    </row>
-    <row r="1303" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1303" s="43"/>
-      <c r="C1303" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1303" s="3"/>
-      <c r="E1303" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1303" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1303" s="17">
-        <v>2013</v>
-      </c>
-      <c r="H1303" s="12">
-        <f t="shared" si="85"/>
-        <v>0.22052362196431957</v>
-      </c>
-      <c r="I1303" s="3"/>
-      <c r="J1303" s="24">
-        <v>104698</v>
-      </c>
-    </row>
-    <row r="1304" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1304" s="43"/>
-      <c r="C1304" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1304" s="3"/>
-      <c r="E1304" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1304" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1304" s="17">
-        <v>2014</v>
-      </c>
-      <c r="H1304" s="12">
-        <f t="shared" si="85"/>
-        <v>0.23619970943566262</v>
-      </c>
-      <c r="I1304" s="3"/>
-      <c r="J1304" s="24">
-        <v>116895</v>
-      </c>
-    </row>
-    <row r="1305" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1305" s="43"/>
-      <c r="C1305" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1305" s="3"/>
-      <c r="E1305" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1305" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1305" s="17">
-        <v>2015</v>
-      </c>
-      <c r="H1305" s="12">
-        <f t="shared" si="85"/>
-        <v>0.25324201338737984</v>
-      </c>
-      <c r="I1305" s="3"/>
-      <c r="J1305" s="24">
-        <v>130448</v>
-      </c>
-    </row>
-    <row r="1306" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1306" s="43"/>
-      <c r="C1306" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1306" s="3"/>
-      <c r="E1306" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1306" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1306" s="17">
-        <v>2016</v>
-      </c>
-      <c r="H1306" s="12">
-        <f t="shared" si="85"/>
-        <v>0.27082811407461138</v>
-      </c>
-      <c r="I1306" s="3"/>
-      <c r="J1306" s="24">
-        <v>144860</v>
-      </c>
-    </row>
-    <row r="1307" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1307" s="43"/>
-      <c r="C1307" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1307" s="3"/>
-      <c r="E1307" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1307" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1307" s="17">
-        <v>2017</v>
-      </c>
-      <c r="H1307" s="12">
-        <f t="shared" si="85"/>
-        <v>0.28987039797314124</v>
-      </c>
-      <c r="I1307" s="3"/>
-      <c r="J1307" s="25">
+      <c r="J1301" s="25">
         <v>160634</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B1307"/>
+    <mergeCell ref="B3:B1301"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55710,14 +55906,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A134B0B7-59FF-45B0-A96B-F490D3E3E38C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="53de4f5b-c397-475b-88a9-3eb33bca2aca"/>
     <ds:schemaRef ds:uri="4dcb8f2d-6e85-46e8-a5a9-901742aeff0d"/>
   </ds:schemaRefs>
